--- a/CLEAN/AugustSales2025_clean.xlsx
+++ b/CLEAN/AugustSales2025_clean.xlsx
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0002610</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0002611</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -668,7 +668,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0002612</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -738,7 +738,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0002613</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -808,7 +808,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0002614</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -878,7 +878,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0002615</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -948,7 +948,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0002616</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1018,7 +1018,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0002617</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1088,7 +1088,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0002618</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1158,7 +1158,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0002619</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0002620</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1298,7 +1298,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0002621</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1368,7 +1368,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0002622</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1438,7 +1438,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0002623</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1508,7 +1508,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0002624</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1578,7 +1578,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0002625</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1648,7 +1648,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0002626</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1718,7 +1718,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0002627</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1788,7 +1788,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0002628</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1858,7 +1858,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0002629</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1928,7 +1928,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0002630</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2002,7 +2002,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0002631</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2072,7 +2072,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0002632</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2142,7 +2142,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0002633</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2212,7 +2212,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0002634</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2282,7 +2282,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0002635</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2352,7 +2352,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0002636</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2422,7 +2422,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0002637</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2492,7 +2492,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0002638</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2562,7 +2562,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0002639</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2632,7 +2632,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0002640</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2702,7 +2702,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0002641</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2772,7 +2772,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0002642</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2842,7 +2842,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0002643</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2912,7 +2912,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0002644</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2982,7 +2982,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0002645</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3052,7 +3052,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0002646</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3122,7 +3122,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0002647</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3192,7 +3192,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0002648</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3262,7 +3262,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0002649</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3332,7 +3332,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0002650</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3402,7 +3402,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0002651</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3472,7 +3472,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0002652</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3542,7 +3542,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0002653</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3612,7 +3612,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0002654</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3682,7 +3682,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0002655</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3756,7 +3756,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0002656</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3826,7 +3826,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0002657</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3896,7 +3896,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0002658</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3966,7 +3966,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0002659</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4036,7 +4036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0002660</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4106,7 +4106,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0002661</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4180,7 +4180,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0002662</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4254,7 +4254,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0002663</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4324,7 +4324,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0002664</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4394,7 +4394,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0002665</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4464,7 +4464,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0002666</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4534,7 +4534,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0002667</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4604,7 +4604,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0002668</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4674,7 +4674,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0002669</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4744,7 +4744,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0002670</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4814,7 +4814,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0002671</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4884,7 +4884,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0002672</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4954,7 +4954,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0002673</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5024,7 +5024,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0002674</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5094,7 +5094,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0002675</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5164,7 +5164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0002676</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5234,7 +5234,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0002677</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5304,7 +5304,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0002678</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5374,7 +5374,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0002679</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5444,7 +5444,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0002680</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5514,7 +5514,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0002681</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5584,7 +5584,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0002682</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5654,7 +5654,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0002683</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5728,7 +5728,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0002684</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5802,7 +5802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0002685</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5872,7 +5872,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0002686</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5942,7 +5942,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0002687</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6012,7 +6012,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0002688</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6086,7 +6086,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0002689</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6156,7 +6156,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0002690</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6226,7 +6226,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0002691</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6296,7 +6296,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0002692</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6366,7 +6366,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0002693</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6436,7 +6436,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0002694</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6506,7 +6506,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0002695</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6576,7 +6576,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0002696</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6646,7 +6646,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0002697</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6716,7 +6716,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0002698</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6786,7 +6786,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0002699</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6856,7 +6856,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0002700</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6926,7 +6926,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0002701</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6996,7 +6996,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0002702</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7070,7 +7070,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0002703</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7140,7 +7140,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0002704</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7210,7 +7210,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0002705</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7280,7 +7280,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0002706</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7350,7 +7350,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0002707</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7420,7 +7420,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0002708</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7490,7 +7490,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0002709</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7560,7 +7560,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0002710</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7630,7 +7630,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0002711</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7700,7 +7700,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0002712</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7770,7 +7770,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0002713</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7840,7 +7840,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0002714</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7910,7 +7910,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0002715</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7980,7 +7980,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0002716</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -8050,7 +8050,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0002717</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8120,7 +8120,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0002718</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8190,7 +8190,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0002719</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8264,7 +8264,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0002720</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8334,7 +8334,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0002721</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8404,7 +8404,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0002722</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8474,7 +8474,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0002723</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8548,7 +8548,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0002724</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8618,7 +8618,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0002725</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8688,7 +8688,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0002726</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8758,7 +8758,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0002727</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8828,7 +8828,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0002728</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8898,7 +8898,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0002729</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8972,7 +8972,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0002730</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -9042,7 +9042,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0002731</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -9116,7 +9116,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0002732</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -9186,7 +9186,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0002733</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -9256,7 +9256,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0002734</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9326,7 +9326,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0002735</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9396,7 +9396,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0002736</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9466,7 +9466,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0002737</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9536,7 +9536,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0002738</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9606,7 +9606,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0002739</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9676,7 +9676,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0002740</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9750,7 +9750,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0002741</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9824,7 +9824,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0002742</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9894,7 +9894,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0002743</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9964,7 +9964,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0002744</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -10034,7 +10034,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0002745</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -10104,7 +10104,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0002746</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10174,7 +10174,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0002747</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10248,7 +10248,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0002748</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10318,7 +10318,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0002749</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10388,7 +10388,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0002750</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10458,7 +10458,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0002751</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10532,7 +10532,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0002752</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10602,7 +10602,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0002753</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10672,7 +10672,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0002754</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10742,7 +10742,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0002755</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10812,7 +10812,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0002756</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10882,7 +10882,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0002757</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10952,7 +10952,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0002758</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -11022,7 +11022,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0002759</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -11092,7 +11092,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0002760</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -11162,7 +11162,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0002761</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -11232,7 +11232,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0002762</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -11302,7 +11302,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0002763</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11372,7 +11372,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0002764</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11442,7 +11442,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0002765</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11512,7 +11512,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0002766</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11582,7 +11582,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0002767</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11652,7 +11652,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0002768</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11722,7 +11722,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0002769</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11792,7 +11792,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0002770</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11866,7 +11866,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0002771</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11936,7 +11936,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0002772</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -12006,7 +12006,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0002773</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -12080,7 +12080,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0002774</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -12154,7 +12154,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0002775</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12224,7 +12224,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0002776</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12294,7 +12294,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0002777</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12364,7 +12364,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0002778</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -12434,7 +12434,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0002779</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -12504,7 +12504,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0002780</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -12574,7 +12574,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0002781</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -12648,7 +12648,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0002782</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -12718,7 +12718,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0002783</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -12788,7 +12788,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0002784</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -12858,7 +12858,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0002785</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -12928,7 +12928,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0002786</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -12998,7 +12998,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0002787</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -13068,7 +13068,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0002788</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -13138,7 +13138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0002789</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -13208,7 +13208,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0002790</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -13278,7 +13278,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0002791</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -13348,7 +13348,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0002792</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -13418,7 +13418,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0002793</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -13488,7 +13488,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0002794</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -13558,7 +13558,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0002795</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -13628,7 +13628,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0002796</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -13698,7 +13698,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0002797</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -13768,7 +13768,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0002798</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -13838,7 +13838,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0002799</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -13908,7 +13908,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0002800</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -13978,7 +13978,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0002801</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -14048,7 +14048,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0002802</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -14118,7 +14118,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0002803</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -14188,7 +14188,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0002804</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -14258,7 +14258,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0002805</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -14332,7 +14332,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0002806</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -14402,7 +14402,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0002807</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -14472,7 +14472,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0002808</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -14542,7 +14542,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0002809</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -14612,7 +14612,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0002810</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -14682,7 +14682,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0002811</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -14752,7 +14752,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0002812</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -14822,7 +14822,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0002813</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -14892,7 +14892,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0002814</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -14962,7 +14962,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0002815</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -15032,7 +15032,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0002816</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -15106,7 +15106,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0002817</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -15176,7 +15176,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0002818</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -15246,7 +15246,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0002819</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -15316,7 +15316,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0002820</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -15386,7 +15386,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0002821</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -15456,7 +15456,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0002822</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -15526,7 +15526,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0002823</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -15596,7 +15596,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0002824</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -15670,7 +15670,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0002825</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -15740,7 +15740,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0002826</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -15810,7 +15810,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0002827</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -15880,7 +15880,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0002828</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -15954,7 +15954,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0002829</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -16024,7 +16024,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0002830</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -16094,7 +16094,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0002831</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -16164,7 +16164,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0002832</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -16234,7 +16234,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0002833</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -16304,7 +16304,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0002834</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -16374,7 +16374,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0002835</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -16444,7 +16444,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0002836</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -16514,7 +16514,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0002837</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -16584,7 +16584,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0002838</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -16654,7 +16654,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0002839</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -16724,7 +16724,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0002840</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -16798,7 +16798,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0002841</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -16868,7 +16868,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0002842</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -16938,7 +16938,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0002843</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -17008,7 +17008,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0002844</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -17078,7 +17078,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0002845</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -17148,7 +17148,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0002846</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -17218,7 +17218,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0002847</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -17288,7 +17288,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0002848</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -17358,7 +17358,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0002849</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -17428,7 +17428,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0002850</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -17498,7 +17498,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0002851</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -17568,7 +17568,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0002852</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -17638,7 +17638,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0002853</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -17708,7 +17708,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0002854</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -17778,7 +17778,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0002855</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -17848,7 +17848,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0002856</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -17918,7 +17918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0002857</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -17988,7 +17988,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0002858</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -18058,7 +18058,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0002859</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -18132,7 +18132,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0002860</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -18202,7 +18202,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0002861</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -18272,7 +18272,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0002862</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -18342,7 +18342,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0002863</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -18412,7 +18412,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0002864</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -18486,7 +18486,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0002865</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -18556,7 +18556,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0002866</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -18630,7 +18630,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0002867</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -18704,7 +18704,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0002868</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -18774,7 +18774,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0002869</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -18844,7 +18844,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0002870</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -18914,7 +18914,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0002871</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -18984,7 +18984,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0002872</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -19054,7 +19054,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0002873</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -19124,7 +19124,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0002874</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -19194,7 +19194,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0002875</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -19264,7 +19264,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0002876</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -19334,7 +19334,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0002877</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -19404,7 +19404,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0002878</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -19478,7 +19478,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0002879</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -19548,7 +19548,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0002880</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -19618,7 +19618,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0002881</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -19688,7 +19688,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0002882</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -19758,7 +19758,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0002883</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -19828,7 +19828,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0002884</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -19898,7 +19898,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0002885</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -19968,7 +19968,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0002886</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -20038,7 +20038,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0002887</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -20108,7 +20108,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0002888</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -20178,7 +20178,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0002889</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -20248,7 +20248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0002890</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -20318,7 +20318,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0002891</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -20388,7 +20388,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0002892</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -20458,7 +20458,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0002893</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -20528,7 +20528,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0002894</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -20598,7 +20598,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0002895</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -20668,7 +20668,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0002896</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -20738,7 +20738,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0002897</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -20808,7 +20808,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0002898</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -20878,7 +20878,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0002899</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -20948,7 +20948,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0002900</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21018,7 +21018,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0002901</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21088,7 +21088,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0002902</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21158,7 +21158,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0002903</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21232,7 +21232,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0002904</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21302,7 +21302,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0002905</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -21372,7 +21372,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0002906</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -21442,7 +21442,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0002907</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -21512,7 +21512,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0002908</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -21582,7 +21582,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0002909</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -21652,7 +21652,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0002910</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -21722,7 +21722,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0002911</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -21792,7 +21792,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0002912</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -21862,7 +21862,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0002913</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -21932,7 +21932,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0002914</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22002,7 +22002,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0002915</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22072,7 +22072,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0002916</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22142,7 +22142,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0002917</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22212,7 +22212,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0002918</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22282,7 +22282,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0002919</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22352,7 +22352,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0002920</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22422,7 +22422,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0002921</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22492,7 +22492,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0002922</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22562,7 +22562,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0002923</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22632,7 +22632,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0002924</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22702,7 +22702,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0002925</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22772,7 +22772,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0002926</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22842,7 +22842,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0002927</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22912,7 +22912,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0002928</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -22982,7 +22982,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0002929</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -23052,7 +23052,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0002930</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -23126,7 +23126,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0002931</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -23196,7 +23196,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0002932</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -23270,7 +23270,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0002933</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23340,7 +23340,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0002934</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23410,7 +23410,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0002935</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23480,7 +23480,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0002936</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23550,7 +23550,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0002937</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23624,7 +23624,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0002938</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23694,7 +23694,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0002939</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23764,7 +23764,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0002940</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23838,7 +23838,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0002941</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23908,7 +23908,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0002942</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -23978,7 +23978,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0002943</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -24048,7 +24048,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0002944</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -24118,7 +24118,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0002945</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -24188,7 +24188,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0002946</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -24258,7 +24258,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0002947</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -24328,7 +24328,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0002948</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -24398,7 +24398,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0002949</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -24468,7 +24468,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0002950</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -24538,7 +24538,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0002951</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -24608,7 +24608,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0002952</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -24678,7 +24678,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0002953</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -24748,7 +24748,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0002954</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -24818,7 +24818,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0002955</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -24892,7 +24892,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0002956</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -24962,7 +24962,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0002957</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -25032,7 +25032,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0002958</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -25102,7 +25102,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0002959</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -25172,7 +25172,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0002960</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -25242,7 +25242,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0002961</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -25312,7 +25312,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0002962</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -25382,7 +25382,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0002963</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -25456,7 +25456,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0002964</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -25526,7 +25526,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0002965</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -25596,7 +25596,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0002966</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -25670,7 +25670,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0002967</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -25740,7 +25740,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0002968</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -25810,7 +25810,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0002969</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -25880,7 +25880,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0002970</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -25950,7 +25950,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0002971</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -26020,7 +26020,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0002972</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -26090,7 +26090,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0002973</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -26160,7 +26160,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0002974</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -26230,7 +26230,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0002975</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -26304,7 +26304,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0002976</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -26374,7 +26374,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0002977</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -26444,7 +26444,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0002978</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -26514,7 +26514,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0002979</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -26584,7 +26584,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0002980</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -26654,7 +26654,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0002981</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -26724,7 +26724,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0002982</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -26794,7 +26794,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0002983</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -26864,7 +26864,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0002984</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -26934,7 +26934,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0002985</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -27004,7 +27004,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0002986</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -27074,7 +27074,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0002987</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -27144,7 +27144,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0002988</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -27214,7 +27214,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0002989</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -27284,7 +27284,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0002990</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -27354,7 +27354,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0002991</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -27424,7 +27424,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0002992</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -27494,7 +27494,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0002993</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -27564,7 +27564,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0002994</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -27634,7 +27634,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0002995</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -27704,7 +27704,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0002996</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -27774,7 +27774,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0002997</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -27848,7 +27848,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0002998</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -27918,7 +27918,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0002999</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -27988,7 +27988,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0003000</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -28058,7 +28058,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0003001</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -28128,7 +28128,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0003002</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -28198,7 +28198,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0003003</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -28268,7 +28268,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0003004</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -28338,7 +28338,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0003005</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -28408,7 +28408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0003006</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -28478,7 +28478,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0003007</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -28548,7 +28548,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0003008</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -28618,7 +28618,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0003009</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -28688,7 +28688,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0003010</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -28758,7 +28758,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0003011</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -28828,7 +28828,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0003012</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -28898,7 +28898,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0003013</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -28968,7 +28968,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0003014</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -29038,7 +29038,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0003015</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -29108,7 +29108,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0003016</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -29178,7 +29178,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0003017</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -29252,7 +29252,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0003018</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -29322,7 +29322,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0003019</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -29392,7 +29392,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0003020</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -29462,7 +29462,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0003021</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -29532,7 +29532,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0003022</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -29602,7 +29602,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0003023</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -29672,7 +29672,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0003024</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -29742,7 +29742,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0003025</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -29812,7 +29812,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0003026</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -29882,7 +29882,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0003027</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -29952,7 +29952,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0003028</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -30022,7 +30022,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0003029</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -30092,7 +30092,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0003030</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -30162,7 +30162,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0003031</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -30232,7 +30232,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0003032</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -30302,7 +30302,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0003033</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -30372,7 +30372,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0003034</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -30442,7 +30442,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0003035</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -30512,7 +30512,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0003036</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -30582,7 +30582,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0003037</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -30652,7 +30652,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0003038</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -30722,7 +30722,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0003039</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -30792,7 +30792,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003040</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -30862,7 +30862,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0003041</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -30932,7 +30932,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0003042</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -31002,7 +31002,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0003043</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -31072,7 +31072,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0003044</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -31142,7 +31142,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0003045</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -31212,7 +31212,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0003046</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -31282,7 +31282,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0003047</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -31352,7 +31352,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0003048</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -31422,7 +31422,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0003049</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -31492,7 +31492,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0003050</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -31562,7 +31562,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0003051</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -31632,7 +31632,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0003052</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -31702,7 +31702,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0003053</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -31772,7 +31772,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0003054</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -31842,7 +31842,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0003055</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -31912,7 +31912,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0003056</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -31982,7 +31982,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0003057</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -32052,7 +32052,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0003058</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -32122,7 +32122,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0003059</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -32192,7 +32192,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0003060</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -32262,7 +32262,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0003061</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -32332,7 +32332,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0003062</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -32402,7 +32402,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0003063</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -32472,7 +32472,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0003064</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -32542,7 +32542,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0003065</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -32612,7 +32612,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0003066</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -32682,7 +32682,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0003067</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -32752,7 +32752,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0003068</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -32822,7 +32822,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0003069</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -32892,7 +32892,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0003070</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -32962,7 +32962,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0003071</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -33032,7 +33032,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0003072</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -33102,7 +33102,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0003073</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -33172,7 +33172,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0003074</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -33242,7 +33242,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0003075</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -33312,7 +33312,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0003076</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -33382,7 +33382,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0003077</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -33452,7 +33452,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0003078</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -33522,7 +33522,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0003079</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -33596,7 +33596,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0003080</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -33666,7 +33666,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0003081</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -33740,7 +33740,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0003082</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -33810,7 +33810,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0003083</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -33880,7 +33880,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0003084</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -33950,7 +33950,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0003085</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -34020,7 +34020,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0003086</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -34090,7 +34090,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0003087</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -34160,7 +34160,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0003088</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -34230,7 +34230,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0003089</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -34300,7 +34300,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0003090</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -34370,7 +34370,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0003091</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -34440,7 +34440,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0003092</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -34510,7 +34510,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0003093</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -34580,7 +34580,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0003094</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -34650,7 +34650,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0003095</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -34720,7 +34720,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0003096</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -34790,7 +34790,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0003097</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -34860,7 +34860,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0003098</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -34930,7 +34930,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0003099</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -35000,7 +35000,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0003100</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -35070,7 +35070,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0003101</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -35140,7 +35140,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0003102</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -35214,7 +35214,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0003103</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -35284,7 +35284,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0003104</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -35354,7 +35354,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0003105</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -35424,7 +35424,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0003106</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -35494,7 +35494,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0003107</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -35564,7 +35564,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0003108</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -35634,7 +35634,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0003109</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -35704,7 +35704,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0003110</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -35774,7 +35774,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0003111</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -35844,7 +35844,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0003112</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -35914,7 +35914,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0003113</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -35984,7 +35984,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0003114</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -36054,7 +36054,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0003115</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -36124,7 +36124,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0003116</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -36198,7 +36198,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0003117</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -36272,7 +36272,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0003118</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -36342,7 +36342,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0003119</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -36412,7 +36412,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0003120</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -36482,7 +36482,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0003121</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -36552,7 +36552,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0003122</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -36622,7 +36622,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0003123</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -36692,7 +36692,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0003124</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -36762,7 +36762,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0003125</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -36832,7 +36832,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0003126</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -36902,7 +36902,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0003127</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -36972,7 +36972,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0003128</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -37042,7 +37042,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0003129</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -37112,7 +37112,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0003130</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -37182,7 +37182,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0003131</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -37256,7 +37256,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0003132</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -37330,7 +37330,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0003133</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -37404,7 +37404,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0003134</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -37474,7 +37474,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0003135</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -37544,7 +37544,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0003136</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -37614,7 +37614,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0003137</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -37684,7 +37684,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0003138</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -37754,7 +37754,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0003139</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -37828,7 +37828,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0003140</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -37898,7 +37898,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0003141</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -37968,7 +37968,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0003142</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -38038,7 +38038,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0003143</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -38108,7 +38108,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0003144</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -38178,7 +38178,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0003145</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -38252,7 +38252,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0003146</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -38322,7 +38322,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0003147</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -38392,7 +38392,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0003148</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -38462,7 +38462,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0003149</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -38532,7 +38532,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0003150</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -38602,7 +38602,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0003151</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -38676,7 +38676,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0003152</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -38750,7 +38750,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0003153</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -38820,7 +38820,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0003154</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -38890,7 +38890,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0003155</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -38960,7 +38960,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0003156</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -39030,7 +39030,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0003157</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -39100,7 +39100,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0003158</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -39170,7 +39170,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0003159</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -39240,7 +39240,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0003160</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -39310,7 +39310,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0003161</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -39380,7 +39380,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0003162</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -39450,7 +39450,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0003163</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -39520,7 +39520,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0003164</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -39590,7 +39590,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0003165</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -39660,7 +39660,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0003166</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -39730,7 +39730,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0003167</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -39800,7 +39800,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0003168</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -39874,7 +39874,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0003169</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -39944,7 +39944,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0003170</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -40014,7 +40014,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0003171</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -40084,7 +40084,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0003172</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -40154,7 +40154,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0003173</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -40224,7 +40224,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0003174</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -40294,7 +40294,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0003175</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -40364,7 +40364,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0003176</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -40434,7 +40434,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0003177</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -40504,7 +40504,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0003178</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -40574,7 +40574,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0003179</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -40644,7 +40644,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0003180</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -40714,7 +40714,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0003181</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -40788,7 +40788,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0003182</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -40858,7 +40858,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0003183</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -40928,7 +40928,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0003184</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -41002,7 +41002,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0003185</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -41072,7 +41072,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0003186</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -41142,7 +41142,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0003187</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -41212,7 +41212,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0003188</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -41282,7 +41282,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0003189</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -41352,7 +41352,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0003190</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -41422,7 +41422,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0003191</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -41492,7 +41492,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0003192</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -41562,7 +41562,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0003193</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -41632,7 +41632,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0003194</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -41702,7 +41702,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0003195</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -41772,7 +41772,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0003196</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -41842,7 +41842,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0003197</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -41912,7 +41912,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0003198</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -41982,7 +41982,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0003199</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -42052,7 +42052,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0003200</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -42122,7 +42122,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0003201</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -42192,7 +42192,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0003202</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -42262,7 +42262,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0003203</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -42332,7 +42332,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0003204</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -42402,7 +42402,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0003205</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -42472,7 +42472,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0003206</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -42542,7 +42542,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0003207</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -42612,7 +42612,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0003208</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -42682,7 +42682,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0003209</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -42752,7 +42752,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0003210</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -42822,7 +42822,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0003211</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -42892,7 +42892,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0003212</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -42962,7 +42962,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0003213</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -43032,7 +43032,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0003214</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -43102,7 +43102,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0003215</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -43172,7 +43172,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0003216</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -43242,7 +43242,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0003217</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -43312,7 +43312,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0003218</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -43382,7 +43382,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0003219</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -43452,7 +43452,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0003220</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -43522,7 +43522,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0003221</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -43592,7 +43592,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0003222</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -43662,7 +43662,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0003223</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -43732,7 +43732,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0003224</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -43802,7 +43802,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0003225</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -43872,7 +43872,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0003226</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -43942,7 +43942,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0003227</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -44012,7 +44012,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0003228</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -44082,7 +44082,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0003229</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -44152,7 +44152,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000621</t>
+          <t>ORD_0003230</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -44222,7 +44222,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000622</t>
+          <t>ORD_0003231</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -44292,7 +44292,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000623</t>
+          <t>ORD_0003232</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -44362,7 +44362,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000624</t>
+          <t>ORD_0003233</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -44432,7 +44432,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000625</t>
+          <t>ORD_0003234</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -44502,7 +44502,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000626</t>
+          <t>ORD_0003235</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -44572,7 +44572,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000627</t>
+          <t>ORD_0003236</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -44642,7 +44642,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000628</t>
+          <t>ORD_0003237</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -44712,7 +44712,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ORD_0000629</t>
+          <t>ORD_0003238</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -44782,7 +44782,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ORD_0000630</t>
+          <t>ORD_0003239</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -44856,7 +44856,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>ORD_0000631</t>
+          <t>ORD_0003240</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -44926,7 +44926,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ORD_0000632</t>
+          <t>ORD_0003241</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -44996,7 +44996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ORD_0000633</t>
+          <t>ORD_0003242</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -45066,7 +45066,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ORD_0000634</t>
+          <t>ORD_0003243</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -45136,7 +45136,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ORD_0000635</t>
+          <t>ORD_0003244</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -45206,7 +45206,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>ORD_0000636</t>
+          <t>ORD_0003245</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -45276,7 +45276,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ORD_0000637</t>
+          <t>ORD_0003246</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -45350,7 +45350,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ORD_0000638</t>
+          <t>ORD_0003247</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -45420,7 +45420,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ORD_0000639</t>
+          <t>ORD_0003248</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -45490,7 +45490,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ORD_0000640</t>
+          <t>ORD_0003249</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -45560,7 +45560,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ORD_0000641</t>
+          <t>ORD_0003250</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -45630,7 +45630,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ORD_0000642</t>
+          <t>ORD_0003251</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -45700,7 +45700,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ORD_0000643</t>
+          <t>ORD_0003252</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -45770,7 +45770,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ORD_0000644</t>
+          <t>ORD_0003253</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -45840,7 +45840,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ORD_0000645</t>
+          <t>ORD_0003254</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -45910,7 +45910,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ORD_0000646</t>
+          <t>ORD_0003255</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -45980,7 +45980,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ORD_0000647</t>
+          <t>ORD_0003256</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -46054,7 +46054,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ORD_0000648</t>
+          <t>ORD_0003257</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -46124,7 +46124,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ORD_0000649</t>
+          <t>ORD_0003258</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -46194,7 +46194,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ORD_0000650</t>
+          <t>ORD_0003259</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -46264,7 +46264,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ORD_0000651</t>
+          <t>ORD_0003260</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -46334,7 +46334,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ORD_0000652</t>
+          <t>ORD_0003261</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -46404,7 +46404,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ORD_0000653</t>
+          <t>ORD_0003262</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -46474,7 +46474,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ORD_0000654</t>
+          <t>ORD_0003263</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -46544,7 +46544,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ORD_0000655</t>
+          <t>ORD_0003264</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -46614,7 +46614,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ORD_0000656</t>
+          <t>ORD_0003265</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -46684,7 +46684,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ORD_0000657</t>
+          <t>ORD_0003266</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -46754,7 +46754,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ORD_0000658</t>
+          <t>ORD_0003267</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -46824,7 +46824,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ORD_0000659</t>
+          <t>ORD_0003268</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -46898,7 +46898,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ORD_0000660</t>
+          <t>ORD_0003269</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -46972,7 +46972,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ORD_0000661</t>
+          <t>ORD_0003270</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -47042,7 +47042,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0003271</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -47112,7 +47112,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ORD_0000663</t>
+          <t>ORD_0003272</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -47182,7 +47182,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ORD_0000664</t>
+          <t>ORD_0003273</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -47252,7 +47252,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ORD_0000665</t>
+          <t>ORD_0003274</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -47322,7 +47322,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ORD_0000666</t>
+          <t>ORD_0003275</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -47392,7 +47392,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ORD_0000667</t>
+          <t>ORD_0003276</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -47462,7 +47462,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ORD_0000668</t>
+          <t>ORD_0003277</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -47532,7 +47532,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ORD_0000669</t>
+          <t>ORD_0003278</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -47602,7 +47602,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ORD_0000670</t>
+          <t>ORD_0003279</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -47672,7 +47672,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ORD_0000671</t>
+          <t>ORD_0003280</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -47742,7 +47742,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ORD_0000672</t>
+          <t>ORD_0003281</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -47812,7 +47812,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ORD_0000673</t>
+          <t>ORD_0003282</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -47882,7 +47882,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ORD_0000674</t>
+          <t>ORD_0003283</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -47956,7 +47956,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ORD_0000675</t>
+          <t>ORD_0003284</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -48026,7 +48026,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ORD_0000676</t>
+          <t>ORD_0003285</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -48096,7 +48096,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>ORD_0000677</t>
+          <t>ORD_0003286</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -48166,7 +48166,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>ORD_0000678</t>
+          <t>ORD_0003287</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -48236,7 +48236,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>ORD_0000679</t>
+          <t>ORD_0003288</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -48306,7 +48306,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>ORD_0000680</t>
+          <t>ORD_0003289</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -48376,7 +48376,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ORD_0000681</t>
+          <t>ORD_0003290</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -48446,7 +48446,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ORD_0000682</t>
+          <t>ORD_0003291</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -48516,7 +48516,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ORD_0000683</t>
+          <t>ORD_0003292</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -48586,7 +48586,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ORD_0000684</t>
+          <t>ORD_0003293</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -48656,7 +48656,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ORD_0000685</t>
+          <t>ORD_0003294</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -48726,7 +48726,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ORD_0000686</t>
+          <t>ORD_0003295</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -48796,7 +48796,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>ORD_0000687</t>
+          <t>ORD_0003296</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -48866,7 +48866,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ORD_0000688</t>
+          <t>ORD_0003297</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -48936,7 +48936,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ORD_0000689</t>
+          <t>ORD_0003298</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -49010,7 +49010,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ORD_0000690</t>
+          <t>ORD_0003299</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -49080,7 +49080,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ORD_0000691</t>
+          <t>ORD_0003300</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -49150,7 +49150,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ORD_0000692</t>
+          <t>ORD_0003301</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -49220,7 +49220,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ORD_0000693</t>
+          <t>ORD_0003302</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -49290,7 +49290,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ORD_0000694</t>
+          <t>ORD_0003303</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -49360,7 +49360,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ORD_0000695</t>
+          <t>ORD_0003304</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -49430,7 +49430,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ORD_0000696</t>
+          <t>ORD_0003305</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -49500,7 +49500,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ORD_0000697</t>
+          <t>ORD_0003306</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -49570,7 +49570,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ORD_0000698</t>
+          <t>ORD_0003307</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -49640,7 +49640,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>ORD_0000699</t>
+          <t>ORD_0003308</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -49714,7 +49714,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ORD_0000700</t>
+          <t>ORD_0003309</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -49788,7 +49788,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ORD_0000701</t>
+          <t>ORD_0003310</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -49858,7 +49858,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ORD_0000702</t>
+          <t>ORD_0003311</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -49928,7 +49928,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>ORD_0000703</t>
+          <t>ORD_0003312</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -49998,7 +49998,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>ORD_0000704</t>
+          <t>ORD_0003313</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -50068,7 +50068,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ORD_0000705</t>
+          <t>ORD_0003314</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -50138,7 +50138,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ORD_0000706</t>
+          <t>ORD_0003315</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -50208,7 +50208,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ORD_0000707</t>
+          <t>ORD_0003316</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -50278,7 +50278,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>ORD_0000708</t>
+          <t>ORD_0003317</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -50348,7 +50348,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ORD_0000709</t>
+          <t>ORD_0003318</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -50418,7 +50418,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ORD_0000710</t>
+          <t>ORD_0003319</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -50488,7 +50488,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ORD_0000711</t>
+          <t>ORD_0003320</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -50562,7 +50562,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ORD_0000712</t>
+          <t>ORD_0003321</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -50632,7 +50632,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ORD_0000713</t>
+          <t>ORD_0003322</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -50702,7 +50702,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ORD_0000714</t>
+          <t>ORD_0003323</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -50772,7 +50772,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ORD_0000715</t>
+          <t>ORD_0003324</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -50842,7 +50842,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ORD_0000716</t>
+          <t>ORD_0003325</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -50912,7 +50912,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ORD_0000717</t>
+          <t>ORD_0003326</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -50982,7 +50982,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ORD_0000718</t>
+          <t>ORD_0003327</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -51052,7 +51052,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ORD_0000719</t>
+          <t>ORD_0003328</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -51122,7 +51122,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ORD_0000720</t>
+          <t>ORD_0003329</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -51192,7 +51192,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ORD_0000721</t>
+          <t>ORD_0003330</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -51262,7 +51262,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ORD_0000722</t>
+          <t>ORD_0003331</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -51332,7 +51332,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ORD_0000723</t>
+          <t>ORD_0003332</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -51402,7 +51402,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ORD_0000724</t>
+          <t>ORD_0003333</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -51476,7 +51476,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ORD_0000725</t>
+          <t>ORD_0003334</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -51546,7 +51546,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ORD_0000726</t>
+          <t>ORD_0003335</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -51616,7 +51616,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ORD_0000727</t>
+          <t>ORD_0003336</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -51690,7 +51690,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ORD_0000728</t>
+          <t>ORD_0003337</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -51760,7 +51760,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ORD_0000729</t>
+          <t>ORD_0003338</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -51830,7 +51830,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ORD_0000730</t>
+          <t>ORD_0003339</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -51900,7 +51900,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ORD_0000731</t>
+          <t>ORD_0003340</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -51974,7 +51974,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ORD_0000732</t>
+          <t>ORD_0003341</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -52044,7 +52044,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ORD_0000733</t>
+          <t>ORD_0003342</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -52114,7 +52114,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ORD_0000734</t>
+          <t>ORD_0003343</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -52184,7 +52184,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ORD_0000735</t>
+          <t>ORD_0003344</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -52254,7 +52254,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>ORD_0000736</t>
+          <t>ORD_0003345</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -52324,7 +52324,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>ORD_0000737</t>
+          <t>ORD_0003346</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -52398,7 +52398,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ORD_0000738</t>
+          <t>ORD_0003347</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -52468,7 +52468,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>ORD_0000739</t>
+          <t>ORD_0003348</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -52538,7 +52538,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>ORD_0000740</t>
+          <t>ORD_0003349</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -52612,7 +52612,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>ORD_0000741</t>
+          <t>ORD_0003350</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -52682,7 +52682,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>ORD_0000742</t>
+          <t>ORD_0003351</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -52752,7 +52752,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ORD_0000743</t>
+          <t>ORD_0003352</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -52822,7 +52822,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>ORD_0000744</t>
+          <t>ORD_0003353</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -52892,7 +52892,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>ORD_0000745</t>
+          <t>ORD_0003354</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -52966,7 +52966,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>ORD_0000746</t>
+          <t>ORD_0003355</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -53036,7 +53036,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>ORD_0000747</t>
+          <t>ORD_0003356</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -53106,7 +53106,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>ORD_0000748</t>
+          <t>ORD_0003357</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -53176,7 +53176,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>ORD_0000749</t>
+          <t>ORD_0003358</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -53250,7 +53250,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>ORD_0000750</t>
+          <t>ORD_0003359</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -53320,7 +53320,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>ORD_0000751</t>
+          <t>ORD_0003360</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -53390,7 +53390,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ORD_0000752</t>
+          <t>ORD_0003361</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -53464,7 +53464,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ORD_0000753</t>
+          <t>ORD_0003362</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -53534,7 +53534,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ORD_0000754</t>
+          <t>ORD_0003363</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -53604,7 +53604,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>ORD_0000755</t>
+          <t>ORD_0003364</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -53674,7 +53674,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>ORD_0000756</t>
+          <t>ORD_0003365</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -53748,7 +53748,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>ORD_0000757</t>
+          <t>ORD_0003366</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -53818,7 +53818,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>ORD_0000758</t>
+          <t>ORD_0003367</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -53888,7 +53888,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>ORD_0000759</t>
+          <t>ORD_0003368</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -53958,7 +53958,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>ORD_0000760</t>
+          <t>ORD_0003369</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -54028,7 +54028,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>ORD_0000761</t>
+          <t>ORD_0003370</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -54098,7 +54098,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>ORD_0000762</t>
+          <t>ORD_0003371</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -54168,7 +54168,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>ORD_0000763</t>
+          <t>ORD_0003372</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -54238,7 +54238,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>ORD_0000764</t>
+          <t>ORD_0003373</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -54308,7 +54308,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>ORD_0000765</t>
+          <t>ORD_0003374</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -54378,7 +54378,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>ORD_0000766</t>
+          <t>ORD_0003375</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -54448,7 +54448,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>ORD_0000767</t>
+          <t>ORD_0003376</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -54518,7 +54518,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>ORD_0000768</t>
+          <t>ORD_0003377</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -54588,7 +54588,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>ORD_0000769</t>
+          <t>ORD_0003378</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -54658,7 +54658,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>ORD_0000770</t>
+          <t>ORD_0003379</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -54728,7 +54728,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>ORD_0000771</t>
+          <t>ORD_0003380</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -54798,7 +54798,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>ORD_0000772</t>
+          <t>ORD_0003381</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -54868,7 +54868,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>ORD_0000773</t>
+          <t>ORD_0003382</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -54938,7 +54938,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>ORD_0000774</t>
+          <t>ORD_0003383</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -55012,7 +55012,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>ORD_0000775</t>
+          <t>ORD_0003384</t>
         </is>
       </c>
       <c r="B776" t="n">
@@ -55082,7 +55082,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>ORD_0000776</t>
+          <t>ORD_0003385</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -55152,7 +55152,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>ORD_0000777</t>
+          <t>ORD_0003386</t>
         </is>
       </c>
       <c r="B778" t="n">
@@ -55222,7 +55222,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>ORD_0000778</t>
+          <t>ORD_0003387</t>
         </is>
       </c>
       <c r="B779" t="n">
@@ -55296,7 +55296,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>ORD_0000779</t>
+          <t>ORD_0003388</t>
         </is>
       </c>
       <c r="B780" t="n">
@@ -55366,7 +55366,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>ORD_0000780</t>
+          <t>ORD_0003389</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -55436,7 +55436,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>ORD_0000781</t>
+          <t>ORD_0003390</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -55506,7 +55506,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>ORD_0000782</t>
+          <t>ORD_0003391</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -55576,7 +55576,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>ORD_0000783</t>
+          <t>ORD_0003392</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -55646,7 +55646,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>ORD_0000784</t>
+          <t>ORD_0003393</t>
         </is>
       </c>
       <c r="B785" t="n">
@@ -55716,7 +55716,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>ORD_0000785</t>
+          <t>ORD_0003394</t>
         </is>
       </c>
       <c r="B786" t="n">
@@ -55786,7 +55786,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>ORD_0000786</t>
+          <t>ORD_0003395</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -55856,7 +55856,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>ORD_0000787</t>
+          <t>ORD_0003396</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -55926,7 +55926,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>ORD_0000788</t>
+          <t>ORD_0003397</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -55996,7 +55996,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>ORD_0000789</t>
+          <t>ORD_0003398</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -56066,7 +56066,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>ORD_0000790</t>
+          <t>ORD_0003399</t>
         </is>
       </c>
       <c r="B791" t="n">
@@ -56136,7 +56136,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>ORD_0000791</t>
+          <t>ORD_0003400</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -56206,7 +56206,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>ORD_0000792</t>
+          <t>ORD_0003401</t>
         </is>
       </c>
       <c r="B793" t="n">
@@ -56276,7 +56276,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>ORD_0000793</t>
+          <t>ORD_0003402</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -56346,7 +56346,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>ORD_0000794</t>
+          <t>ORD_0003403</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -56416,7 +56416,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>ORD_0000795</t>
+          <t>ORD_0003404</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -56486,7 +56486,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>ORD_0000796</t>
+          <t>ORD_0003405</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -56556,7 +56556,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>ORD_0000797</t>
+          <t>ORD_0003406</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -56626,7 +56626,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>ORD_0000798</t>
+          <t>ORD_0003407</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -56696,7 +56696,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>ORD_0000799</t>
+          <t>ORD_0003408</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -56766,7 +56766,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>ORD_0000800</t>
+          <t>ORD_0003409</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -56836,7 +56836,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>ORD_0000801</t>
+          <t>ORD_0003410</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -56906,7 +56906,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>ORD_0000802</t>
+          <t>ORD_0003411</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -56976,7 +56976,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>ORD_0000803</t>
+          <t>ORD_0003412</t>
         </is>
       </c>
       <c r="B804" t="n">
@@ -57046,7 +57046,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>ORD_0000804</t>
+          <t>ORD_0003413</t>
         </is>
       </c>
       <c r="B805" t="n">
@@ -57116,7 +57116,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ORD_0000805</t>
+          <t>ORD_0003414</t>
         </is>
       </c>
       <c r="B806" t="n">
@@ -57186,7 +57186,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>ORD_0000806</t>
+          <t>ORD_0003415</t>
         </is>
       </c>
       <c r="B807" t="n">
@@ -57256,7 +57256,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>ORD_0000807</t>
+          <t>ORD_0003416</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -57326,7 +57326,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>ORD_0000808</t>
+          <t>ORD_0003417</t>
         </is>
       </c>
       <c r="B809" t="n">
@@ -57396,7 +57396,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>ORD_0000809</t>
+          <t>ORD_0003418</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -57466,7 +57466,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>ORD_0000810</t>
+          <t>ORD_0003419</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -57536,7 +57536,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>ORD_0000811</t>
+          <t>ORD_0003420</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -57606,7 +57606,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>ORD_0000812</t>
+          <t>ORD_0003421</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -57676,7 +57676,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>ORD_0000813</t>
+          <t>ORD_0003422</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -57746,7 +57746,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>ORD_0000814</t>
+          <t>ORD_0003423</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -57816,7 +57816,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>ORD_0000815</t>
+          <t>ORD_0003424</t>
         </is>
       </c>
       <c r="B816" t="n">
@@ -57886,7 +57886,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>ORD_0000816</t>
+          <t>ORD_0003425</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -57956,7 +57956,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>ORD_0000817</t>
+          <t>ORD_0003426</t>
         </is>
       </c>
       <c r="B818" t="n">
@@ -58026,7 +58026,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>ORD_0000818</t>
+          <t>ORD_0003427</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -58096,7 +58096,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>ORD_0000819</t>
+          <t>ORD_0003428</t>
         </is>
       </c>
       <c r="B820" t="n">
@@ -58166,7 +58166,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>ORD_0000820</t>
+          <t>ORD_0003429</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -58236,7 +58236,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>ORD_0000821</t>
+          <t>ORD_0003430</t>
         </is>
       </c>
       <c r="B822" t="n">
@@ -58306,7 +58306,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>ORD_0000822</t>
+          <t>ORD_0003431</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -58376,7 +58376,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>ORD_0000823</t>
+          <t>ORD_0003432</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -58446,7 +58446,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>ORD_0000824</t>
+          <t>ORD_0003433</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -58516,7 +58516,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>ORD_0000825</t>
+          <t>ORD_0003434</t>
         </is>
       </c>
       <c r="B826" t="n">
@@ -58590,7 +58590,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>ORD_0000826</t>
+          <t>ORD_0003435</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -58660,7 +58660,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>ORD_0000827</t>
+          <t>ORD_0003436</t>
         </is>
       </c>
       <c r="B828" t="n">
@@ -58730,7 +58730,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>ORD_0000828</t>
+          <t>ORD_0003437</t>
         </is>
       </c>
       <c r="B829" t="n">
@@ -58800,7 +58800,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>ORD_0000829</t>
+          <t>ORD_0003438</t>
         </is>
       </c>
       <c r="B830" t="n">
@@ -58870,7 +58870,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>ORD_0000830</t>
+          <t>ORD_0003439</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -58940,7 +58940,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>ORD_0000831</t>
+          <t>ORD_0003440</t>
         </is>
       </c>
       <c r="B832" t="n">
@@ -59010,7 +59010,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>ORD_0000832</t>
+          <t>ORD_0003441</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -59080,7 +59080,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>ORD_0000833</t>
+          <t>ORD_0003442</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -59150,7 +59150,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>ORD_0000834</t>
+          <t>ORD_0003443</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -59220,7 +59220,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>ORD_0000835</t>
+          <t>ORD_0003444</t>
         </is>
       </c>
       <c r="B836" t="n">
@@ -59290,7 +59290,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>ORD_0000836</t>
+          <t>ORD_0003445</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -59360,7 +59360,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>ORD_0000837</t>
+          <t>ORD_0003446</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -59430,7 +59430,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>ORD_0000838</t>
+          <t>ORD_0003447</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -59504,7 +59504,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>ORD_0000839</t>
+          <t>ORD_0003448</t>
         </is>
       </c>
       <c r="B840" t="n">
@@ -59574,7 +59574,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>ORD_0000840</t>
+          <t>ORD_0003449</t>
         </is>
       </c>
       <c r="B841" t="n">
@@ -59644,7 +59644,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>ORD_0000841</t>
+          <t>ORD_0003450</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -59718,7 +59718,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>ORD_0000842</t>
+          <t>ORD_0003451</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -59788,7 +59788,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>ORD_0000843</t>
+          <t>ORD_0003452</t>
         </is>
       </c>
       <c r="B844" t="n">
@@ -59858,7 +59858,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>ORD_0000844</t>
+          <t>ORD_0003453</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -59928,7 +59928,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>ORD_0000845</t>
+          <t>ORD_0003454</t>
         </is>
       </c>
       <c r="B846" t="n">
@@ -59998,7 +59998,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>ORD_0000846</t>
+          <t>ORD_0003455</t>
         </is>
       </c>
       <c r="B847" t="n">
@@ -60068,7 +60068,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>ORD_0000847</t>
+          <t>ORD_0003456</t>
         </is>
       </c>
       <c r="B848" t="n">
@@ -60138,7 +60138,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>ORD_0000848</t>
+          <t>ORD_0003457</t>
         </is>
       </c>
       <c r="B849" t="n">
@@ -60208,7 +60208,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>ORD_0000849</t>
+          <t>ORD_0003458</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -60278,7 +60278,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>ORD_0000850</t>
+          <t>ORD_0003459</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -60348,7 +60348,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>ORD_0000851</t>
+          <t>ORD_0003460</t>
         </is>
       </c>
       <c r="B852" t="n">
@@ -60418,7 +60418,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>ORD_0000852</t>
+          <t>ORD_0003461</t>
         </is>
       </c>
       <c r="B853" t="n">
@@ -60488,7 +60488,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>ORD_0000853</t>
+          <t>ORD_0003462</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -60562,7 +60562,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>ORD_0000854</t>
+          <t>ORD_0003463</t>
         </is>
       </c>
       <c r="B855" t="n">
@@ -60632,7 +60632,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>ORD_0000855</t>
+          <t>ORD_0003464</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -60702,7 +60702,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>ORD_0000856</t>
+          <t>ORD_0003465</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -60772,7 +60772,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>ORD_0000857</t>
+          <t>ORD_0003466</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -60842,7 +60842,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>ORD_0000858</t>
+          <t>ORD_0003467</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -60912,7 +60912,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>ORD_0000859</t>
+          <t>ORD_0003468</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -60982,7 +60982,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>ORD_0000860</t>
+          <t>ORD_0003469</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -61052,7 +61052,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>ORD_0000861</t>
+          <t>ORD_0003470</t>
         </is>
       </c>
       <c r="B862" t="n">
@@ -61122,7 +61122,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>ORD_0000862</t>
+          <t>ORD_0003471</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -61192,7 +61192,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>ORD_0000863</t>
+          <t>ORD_0003472</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -61262,7 +61262,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>ORD_0000864</t>
+          <t>ORD_0003473</t>
         </is>
       </c>
       <c r="B865" t="n">
@@ -61332,7 +61332,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>ORD_0000865</t>
+          <t>ORD_0003474</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -61402,7 +61402,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>ORD_0000866</t>
+          <t>ORD_0003475</t>
         </is>
       </c>
       <c r="B867" t="n">
@@ -61472,7 +61472,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>ORD_0000867</t>
+          <t>ORD_0003476</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -61542,7 +61542,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>ORD_0000868</t>
+          <t>ORD_0003477</t>
         </is>
       </c>
       <c r="B869" t="n">
@@ -61612,7 +61612,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>ORD_0000869</t>
+          <t>ORD_0003478</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -61682,7 +61682,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>ORD_0000870</t>
+          <t>ORD_0003479</t>
         </is>
       </c>
       <c r="B871" t="n">
@@ -61752,7 +61752,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>ORD_0000871</t>
+          <t>ORD_0003480</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -61822,7 +61822,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>ORD_0000872</t>
+          <t>ORD_0003481</t>
         </is>
       </c>
       <c r="B873" t="n">
@@ -61892,7 +61892,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>ORD_0000873</t>
+          <t>ORD_0003482</t>
         </is>
       </c>
       <c r="B874" t="n">
@@ -61962,7 +61962,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>ORD_0000874</t>
+          <t>ORD_0003483</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -62032,7 +62032,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>ORD_0000875</t>
+          <t>ORD_0003484</t>
         </is>
       </c>
       <c r="B876" t="n">
@@ -62102,7 +62102,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>ORD_0000876</t>
+          <t>ORD_0003485</t>
         </is>
       </c>
       <c r="B877" t="n">
@@ -62172,7 +62172,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>ORD_0000877</t>
+          <t>ORD_0003486</t>
         </is>
       </c>
       <c r="B878" t="n">
@@ -62242,7 +62242,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>ORD_0000878</t>
+          <t>ORD_0003487</t>
         </is>
       </c>
       <c r="B879" t="n">
@@ -62312,7 +62312,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>ORD_0000879</t>
+          <t>ORD_0003488</t>
         </is>
       </c>
       <c r="B880" t="n">
@@ -62382,7 +62382,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>ORD_0000880</t>
+          <t>ORD_0003489</t>
         </is>
       </c>
       <c r="B881" t="n">
@@ -62452,7 +62452,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>ORD_0000881</t>
+          <t>ORD_0003490</t>
         </is>
       </c>
       <c r="B882" t="n">
@@ -62522,7 +62522,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>ORD_0000882</t>
+          <t>ORD_0003491</t>
         </is>
       </c>
       <c r="B883" t="n">
@@ -62592,7 +62592,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>ORD_0000883</t>
+          <t>ORD_0003492</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -62662,7 +62662,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>ORD_0000884</t>
+          <t>ORD_0003493</t>
         </is>
       </c>
       <c r="B885" t="n">
@@ -62732,7 +62732,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>ORD_0000885</t>
+          <t>ORD_0003494</t>
         </is>
       </c>
       <c r="B886" t="n">
@@ -62802,7 +62802,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>ORD_0000886</t>
+          <t>ORD_0003495</t>
         </is>
       </c>
       <c r="B887" t="n">
@@ -62872,7 +62872,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>ORD_0000887</t>
+          <t>ORD_0003496</t>
         </is>
       </c>
       <c r="B888" t="n">
@@ -62942,7 +62942,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>ORD_0000888</t>
+          <t>ORD_0003497</t>
         </is>
       </c>
       <c r="B889" t="n">
@@ -63012,7 +63012,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>ORD_0000889</t>
+          <t>ORD_0003498</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -63082,7 +63082,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>ORD_0000890</t>
+          <t>ORD_0003499</t>
         </is>
       </c>
       <c r="B891" t="n">
@@ -63152,7 +63152,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>ORD_0000891</t>
+          <t>ORD_0003500</t>
         </is>
       </c>
       <c r="B892" t="n">
@@ -63222,7 +63222,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>ORD_0000892</t>
+          <t>ORD_0003501</t>
         </is>
       </c>
       <c r="B893" t="n">
@@ -63292,7 +63292,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>ORD_0000893</t>
+          <t>ORD_0003502</t>
         </is>
       </c>
       <c r="B894" t="n">
@@ -63362,7 +63362,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>ORD_0000894</t>
+          <t>ORD_0003503</t>
         </is>
       </c>
       <c r="B895" t="n">
@@ -63436,7 +63436,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>ORD_0000895</t>
+          <t>ORD_0003504</t>
         </is>
       </c>
       <c r="B896" t="n">
@@ -63510,7 +63510,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>ORD_0000896</t>
+          <t>ORD_0003505</t>
         </is>
       </c>
       <c r="B897" t="n">
@@ -63584,7 +63584,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>ORD_0000897</t>
+          <t>ORD_0003506</t>
         </is>
       </c>
       <c r="B898" t="n">
@@ -63654,7 +63654,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>ORD_0000898</t>
+          <t>ORD_0003507</t>
         </is>
       </c>
       <c r="B899" t="n">
@@ -63724,7 +63724,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>ORD_0000899</t>
+          <t>ORD_0003508</t>
         </is>
       </c>
       <c r="B900" t="n">
@@ -63794,7 +63794,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>ORD_0000900</t>
+          <t>ORD_0003509</t>
         </is>
       </c>
       <c r="B901" t="n">
@@ -63864,7 +63864,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>ORD_0000901</t>
+          <t>ORD_0003510</t>
         </is>
       </c>
       <c r="B902" t="n">
@@ -63934,7 +63934,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>ORD_0000902</t>
+          <t>ORD_0003511</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -64004,7 +64004,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>ORD_0000903</t>
+          <t>ORD_0003512</t>
         </is>
       </c>
       <c r="B904" t="n">
@@ -64074,7 +64074,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>ORD_0000904</t>
+          <t>ORD_0003513</t>
         </is>
       </c>
       <c r="B905" t="n">
@@ -64144,7 +64144,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>ORD_0000905</t>
+          <t>ORD_0003514</t>
         </is>
       </c>
       <c r="B906" t="n">
@@ -64214,7 +64214,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>ORD_0000906</t>
+          <t>ORD_0003515</t>
         </is>
       </c>
       <c r="B907" t="n">
@@ -64284,7 +64284,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>ORD_0000907</t>
+          <t>ORD_0003516</t>
         </is>
       </c>
       <c r="B908" t="n">
@@ -64354,7 +64354,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>ORD_0000908</t>
+          <t>ORD_0003517</t>
         </is>
       </c>
       <c r="B909" t="n">
@@ -64424,7 +64424,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>ORD_0000909</t>
+          <t>ORD_0003518</t>
         </is>
       </c>
       <c r="B910" t="n">
@@ -64494,7 +64494,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>ORD_0000910</t>
+          <t>ORD_0003519</t>
         </is>
       </c>
       <c r="B911" t="n">
@@ -64564,7 +64564,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>ORD_0000911</t>
+          <t>ORD_0003520</t>
         </is>
       </c>
       <c r="B912" t="n">
@@ -64634,7 +64634,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>ORD_0000912</t>
+          <t>ORD_0003521</t>
         </is>
       </c>
       <c r="B913" t="n">
@@ -64704,7 +64704,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>ORD_0000913</t>
+          <t>ORD_0003522</t>
         </is>
       </c>
       <c r="B914" t="n">
@@ -64774,7 +64774,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>ORD_0000914</t>
+          <t>ORD_0003523</t>
         </is>
       </c>
       <c r="B915" t="n">
@@ -64844,7 +64844,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>ORD_0000915</t>
+          <t>ORD_0003524</t>
         </is>
       </c>
       <c r="B916" t="n">
@@ -64918,7 +64918,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>ORD_0000916</t>
+          <t>ORD_0003525</t>
         </is>
       </c>
       <c r="B917" t="n">
@@ -64992,7 +64992,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>ORD_0000917</t>
+          <t>ORD_0003526</t>
         </is>
       </c>
       <c r="B918" t="n">
@@ -65062,7 +65062,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>ORD_0000918</t>
+          <t>ORD_0003527</t>
         </is>
       </c>
       <c r="B919" t="n">
@@ -65132,7 +65132,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>ORD_0000919</t>
+          <t>ORD_0003528</t>
         </is>
       </c>
       <c r="B920" t="n">
@@ -65202,7 +65202,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>ORD_0000920</t>
+          <t>ORD_0003529</t>
         </is>
       </c>
       <c r="B921" t="n">
@@ -65272,7 +65272,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>ORD_0000921</t>
+          <t>ORD_0003530</t>
         </is>
       </c>
       <c r="B922" t="n">
@@ -65342,7 +65342,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>ORD_0000922</t>
+          <t>ORD_0003531</t>
         </is>
       </c>
       <c r="B923" t="n">
@@ -65412,7 +65412,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>ORD_0000923</t>
+          <t>ORD_0003532</t>
         </is>
       </c>
       <c r="B924" t="n">
@@ -65482,7 +65482,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>ORD_0000924</t>
+          <t>ORD_0003533</t>
         </is>
       </c>
       <c r="B925" t="n">
@@ -65552,7 +65552,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>ORD_0000925</t>
+          <t>ORD_0003534</t>
         </is>
       </c>
       <c r="B926" t="n">
@@ -65622,7 +65622,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>ORD_0000926</t>
+          <t>ORD_0003535</t>
         </is>
       </c>
       <c r="B927" t="n">
@@ -65692,7 +65692,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>ORD_0000927</t>
+          <t>ORD_0003536</t>
         </is>
       </c>
       <c r="B928" t="n">
@@ -65762,7 +65762,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>ORD_0000928</t>
+          <t>ORD_0003537</t>
         </is>
       </c>
       <c r="B929" t="n">
@@ -65832,7 +65832,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>ORD_0000929</t>
+          <t>ORD_0003538</t>
         </is>
       </c>
       <c r="B930" t="n">
@@ -65902,7 +65902,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>ORD_0000930</t>
+          <t>ORD_0003539</t>
         </is>
       </c>
       <c r="B931" t="n">
@@ -65972,7 +65972,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>ORD_0000931</t>
+          <t>ORD_0003540</t>
         </is>
       </c>
       <c r="B932" t="n">
@@ -66042,7 +66042,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>ORD_0000932</t>
+          <t>ORD_0003541</t>
         </is>
       </c>
       <c r="B933" t="n">
@@ -66112,7 +66112,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>ORD_0000933</t>
+          <t>ORD_0003542</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -66182,7 +66182,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>ORD_0000934</t>
+          <t>ORD_0003543</t>
         </is>
       </c>
       <c r="B935" t="n">
@@ -66256,7 +66256,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>ORD_0000935</t>
+          <t>ORD_0003544</t>
         </is>
       </c>
       <c r="B936" t="n">
@@ -66326,7 +66326,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>ORD_0000936</t>
+          <t>ORD_0003545</t>
         </is>
       </c>
       <c r="B937" t="n">
@@ -66396,7 +66396,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>ORD_0000937</t>
+          <t>ORD_0003546</t>
         </is>
       </c>
       <c r="B938" t="n">
@@ -66466,7 +66466,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>ORD_0000938</t>
+          <t>ORD_0003547</t>
         </is>
       </c>
       <c r="B939" t="n">
@@ -66536,7 +66536,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>ORD_0000939</t>
+          <t>ORD_0003548</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -66606,7 +66606,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>ORD_0000940</t>
+          <t>ORD_0003549</t>
         </is>
       </c>
       <c r="B941" t="n">
@@ -66676,7 +66676,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>ORD_0000941</t>
+          <t>ORD_0003550</t>
         </is>
       </c>
       <c r="B942" t="n">
@@ -66746,7 +66746,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>ORD_0000942</t>
+          <t>ORD_0003551</t>
         </is>
       </c>
       <c r="B943" t="n">
